--- a/Code/Results/Cases/Case_8_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031043921737222</v>
+        <v>1.024303102837061</v>
       </c>
       <c r="D2">
-        <v>1.041766496458251</v>
+        <v>1.035916946276133</v>
       </c>
       <c r="E2">
-        <v>1.041009476332188</v>
+        <v>1.035682549651359</v>
       </c>
       <c r="F2">
-        <v>1.047147589502801</v>
+        <v>1.042905702930988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055884495823112</v>
+        <v>1.052606867736908</v>
       </c>
       <c r="J2">
-        <v>1.05233416629899</v>
+        <v>1.045780438904655</v>
       </c>
       <c r="K2">
-        <v>1.052673079990607</v>
+        <v>1.04689759042512</v>
       </c>
       <c r="L2">
-        <v>1.051925585931655</v>
+        <v>1.046666183252676</v>
       </c>
       <c r="M2">
-        <v>1.057986953717821</v>
+        <v>1.053797983602273</v>
       </c>
       <c r="N2">
-        <v>1.053828601519551</v>
+        <v>1.035265424721077</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054465042251696</v>
+        <v>1.051149808622444</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048314642991744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044239633729398</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024281052591542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035350000233084</v>
+        <v>1.028089432758787</v>
       </c>
       <c r="D3">
-        <v>1.044670789769055</v>
+        <v>1.038349175258729</v>
       </c>
       <c r="E3">
-        <v>1.044416624473905</v>
+        <v>1.038659286324257</v>
       </c>
       <c r="F3">
-        <v>1.050330984275762</v>
+        <v>1.045750347920985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057113936724679</v>
+        <v>1.053554825789636</v>
       </c>
       <c r="J3">
-        <v>1.054921276421532</v>
+        <v>1.047842577832752</v>
       </c>
       <c r="K3">
-        <v>1.054762306393543</v>
+        <v>1.048513802985509</v>
       </c>
       <c r="L3">
-        <v>1.054511059501226</v>
+        <v>1.048820301871747</v>
       </c>
       <c r="M3">
-        <v>1.060357960018478</v>
+        <v>1.055829488243798</v>
       </c>
       <c r="N3">
-        <v>1.056419385635212</v>
+        <v>1.036421539229684</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056341496999538</v>
+        <v>1.052757583314034</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049789241233088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045379500140003</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024632589284688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038084341625068</v>
+        <v>1.030497088120099</v>
       </c>
       <c r="D4">
-        <v>1.046518769458889</v>
+        <v>1.039899528548007</v>
       </c>
       <c r="E4">
-        <v>1.04658571494602</v>
+        <v>1.040557704855992</v>
       </c>
       <c r="F4">
-        <v>1.052359705156887</v>
+        <v>1.047566173061603</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057886773796545</v>
+        <v>1.054150066974687</v>
       </c>
       <c r="J4">
-        <v>1.056561587899934</v>
+        <v>1.049151587981954</v>
       </c>
       <c r="K4">
-        <v>1.056086390399486</v>
+        <v>1.049539117876556</v>
       </c>
       <c r="L4">
-        <v>1.056152613716104</v>
+        <v>1.050190087760543</v>
       </c>
       <c r="M4">
-        <v>1.061864740607127</v>
+        <v>1.057122508158729</v>
       </c>
       <c r="N4">
-        <v>1.05806202654406</v>
+        <v>1.037155415500363</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057533986407762</v>
+        <v>1.053780904167104</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050726341105533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04610544164317</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024853165702848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039226908528586</v>
+        <v>1.031503499226249</v>
       </c>
       <c r="D5">
-        <v>1.047294291494674</v>
+        <v>1.040550924143953</v>
       </c>
       <c r="E5">
-        <v>1.047493895884839</v>
+        <v>1.041353014276819</v>
       </c>
       <c r="F5">
-        <v>1.053208936829815</v>
+        <v>1.048326659276061</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058209904847643</v>
+        <v>1.054399015142479</v>
       </c>
       <c r="J5">
-        <v>1.057248297984822</v>
+        <v>1.049699958427426</v>
       </c>
       <c r="K5">
-        <v>1.056642404596454</v>
+        <v>1.049970416217199</v>
       </c>
       <c r="L5">
-        <v>1.05683991327982</v>
+        <v>1.050763956880666</v>
       </c>
       <c r="M5">
-        <v>1.062495361612553</v>
+        <v>1.057663943758518</v>
       </c>
       <c r="N5">
-        <v>1.058749711836035</v>
+        <v>1.037462849695135</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.058033069051076</v>
+        <v>1.05420940631255</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051126544194435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046418206353366</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024946112278603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039424253570953</v>
+        <v>1.031676877047647</v>
       </c>
       <c r="D6">
-        <v>1.047431280213814</v>
+        <v>1.040666196480137</v>
       </c>
       <c r="E6">
-        <v>1.0476514516824</v>
+        <v>1.041490653837735</v>
       </c>
       <c r="F6">
-        <v>1.053355479962752</v>
+        <v>1.048457549477193</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058268177483126</v>
+        <v>1.054444200462663</v>
       </c>
       <c r="J6">
-        <v>1.057369205353744</v>
+        <v>1.049796542401415</v>
       </c>
       <c r="K6">
-        <v>1.056742507873354</v>
+        <v>1.050048706732446</v>
       </c>
       <c r="L6">
-        <v>1.056960378328919</v>
+        <v>1.050864416291654</v>
       </c>
       <c r="M6">
-        <v>1.062605202827351</v>
+        <v>1.057758061663886</v>
       </c>
       <c r="N6">
-        <v>1.058870790907289</v>
+        <v>1.037516997718986</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.058119998954181</v>
+        <v>1.054283892938464</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051205938659738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046483084325675</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024963864908085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03811639489352</v>
+        <v>1.030552980884121</v>
       </c>
       <c r="D7">
-        <v>1.046548551513926</v>
+        <v>1.039947737396439</v>
       </c>
       <c r="E7">
-        <v>1.046612877513875</v>
+        <v>1.04060623536795</v>
       </c>
       <c r="F7">
-        <v>1.052382898464829</v>
+        <v>1.047606122099075</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057902799102621</v>
+        <v>1.054179663445833</v>
       </c>
       <c r="J7">
-        <v>1.056587146641469</v>
+        <v>1.049200345097746</v>
       </c>
       <c r="K7">
-        <v>1.056113027147794</v>
+        <v>1.049583950637875</v>
       </c>
       <c r="L7">
-        <v>1.056176659511426</v>
+        <v>1.050235241883986</v>
       </c>
       <c r="M7">
-        <v>1.061884883810591</v>
+        <v>1.057159207051879</v>
       </c>
       <c r="N7">
-        <v>1.058087621581939</v>
+        <v>1.037234101522337</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057549928037219</v>
+        <v>1.053809948357414</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050764993859671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046159042945551</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02486882346015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032531433542613</v>
+        <v>1.025700303410829</v>
       </c>
       <c r="D8">
-        <v>1.042779032662628</v>
+        <v>1.036837157484583</v>
       </c>
       <c r="E8">
-        <v>1.042187560752365</v>
+        <v>1.036791567729693</v>
       </c>
       <c r="F8">
-        <v>1.048245064745205</v>
+        <v>1.043948591561059</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05631958741285</v>
+        <v>1.052995757437782</v>
       </c>
       <c r="J8">
-        <v>1.053236286654122</v>
+        <v>1.04658838234535</v>
       </c>
       <c r="K8">
-        <v>1.053409112299103</v>
+        <v>1.047540235711848</v>
       </c>
       <c r="L8">
-        <v>1.05282486050542</v>
+        <v>1.047495210074206</v>
       </c>
       <c r="M8">
-        <v>1.058808898991888</v>
+        <v>1.054564424281994</v>
       </c>
       <c r="N8">
-        <v>1.054732002989062</v>
+        <v>1.035874153217811</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055115544257899</v>
+        <v>1.051756385995453</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048857666675621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044718983322758</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024435713324854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022245313357627</v>
+        <v>1.016698090557054</v>
       </c>
       <c r="D9">
-        <v>1.03585545754316</v>
+        <v>1.031071327987831</v>
       </c>
       <c r="E9">
-        <v>1.034080403103184</v>
+        <v>1.029748143038245</v>
       </c>
       <c r="F9">
-        <v>1.040685014848897</v>
+        <v>1.03722664842961</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053331522055156</v>
+        <v>1.050699526656512</v>
       </c>
       <c r="J9">
-        <v>1.047036268071286</v>
+        <v>1.04167466912547</v>
       </c>
       <c r="K9">
-        <v>1.048392408222085</v>
+        <v>1.043679635276563</v>
       </c>
       <c r="L9">
-        <v>1.046643731239338</v>
+        <v>1.042376335015023</v>
       </c>
       <c r="M9">
-        <v>1.053150776060272</v>
+        <v>1.049743301626055</v>
       </c>
       <c r="N9">
-        <v>1.048523179668685</v>
+        <v>1.03313834233912</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050637594495352</v>
+        <v>1.047940839305513</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045307466480549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041985903441541</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023582303151272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015185256413953</v>
+        <v>1.010675613493157</v>
       </c>
       <c r="D10">
-        <v>1.031143951994199</v>
+        <v>1.027274421542794</v>
       </c>
       <c r="E10">
-        <v>1.028589484128509</v>
+        <v>1.025124173859409</v>
       </c>
       <c r="F10">
-        <v>1.035619401265351</v>
+        <v>1.03284529390204</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051275217976181</v>
+        <v>1.049201788560912</v>
       </c>
       <c r="J10">
-        <v>1.042809080754868</v>
+        <v>1.03847198075252</v>
       </c>
       <c r="K10">
-        <v>1.044972774451149</v>
+        <v>1.041168091499206</v>
       </c>
       <c r="L10">
-        <v>1.04246104505614</v>
+        <v>1.039054151802875</v>
       </c>
       <c r="M10">
-        <v>1.049373999552745</v>
+        <v>1.046645802457653</v>
       </c>
       <c r="N10">
-        <v>1.044289989261414</v>
+        <v>1.031572718340317</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047699433608851</v>
+        <v>1.045540398638884</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042906247818522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040228471055497</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023041844453665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012896880737185</v>
+        <v>1.008871892818563</v>
       </c>
       <c r="D11">
-        <v>1.029745635774512</v>
+        <v>1.026286500015328</v>
       </c>
       <c r="E11">
-        <v>1.027139000846083</v>
+        <v>1.024084154834273</v>
       </c>
       <c r="F11">
-        <v>1.03463232603933</v>
+        <v>1.032185580151727</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050861990209226</v>
+        <v>1.049047428301884</v>
       </c>
       <c r="J11">
-        <v>1.041742805309677</v>
+        <v>1.037880192162051</v>
       </c>
       <c r="K11">
-        <v>1.044127579965116</v>
+        <v>1.040729152648333</v>
       </c>
       <c r="L11">
-        <v>1.041566642724896</v>
+        <v>1.038565736224117</v>
       </c>
       <c r="M11">
-        <v>1.048929402723443</v>
+        <v>1.046525019642532</v>
       </c>
       <c r="N11">
-        <v>1.043222199582787</v>
+        <v>1.031679801214912</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047779164661117</v>
+        <v>1.045877327677155</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042341188414264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039953940080833</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023045363442811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012353459962297</v>
+        <v>1.008440994333902</v>
       </c>
       <c r="D12">
-        <v>1.029473856339401</v>
+        <v>1.026106661931104</v>
       </c>
       <c r="E12">
-        <v>1.026958539475407</v>
+        <v>1.023995306274347</v>
       </c>
       <c r="F12">
-        <v>1.034722301274312</v>
+        <v>1.03235071086528</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050895475075924</v>
+        <v>1.049135106444651</v>
       </c>
       <c r="J12">
-        <v>1.041644047364032</v>
+        <v>1.03789236305814</v>
       </c>
       <c r="K12">
-        <v>1.044057360649862</v>
+        <v>1.040750227272674</v>
       </c>
       <c r="L12">
-        <v>1.041586861450822</v>
+        <v>1.038676793984141</v>
       </c>
       <c r="M12">
-        <v>1.049213198457044</v>
+        <v>1.046883302806353</v>
       </c>
       <c r="N12">
-        <v>1.043123301389531</v>
+        <v>1.031877292242346</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048326831774437</v>
+        <v>1.046484526127875</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042291541997043</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039968840027595</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023113294753755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013139292962643</v>
+        <v>1.009026170023601</v>
       </c>
       <c r="D13">
-        <v>1.030074300582067</v>
+        <v>1.026532593550909</v>
       </c>
       <c r="E13">
-        <v>1.02776442124451</v>
+        <v>1.024624050410862</v>
       </c>
       <c r="F13">
-        <v>1.035673804543143</v>
+        <v>1.03316506850327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051293659793002</v>
+        <v>1.04941474909693</v>
       </c>
       <c r="J13">
-        <v>1.042307171611043</v>
+        <v>1.038362135391869</v>
       </c>
       <c r="K13">
-        <v>1.044604969462192</v>
+        <v>1.041126144160831</v>
       </c>
       <c r="L13">
-        <v>1.042336037407778</v>
+        <v>1.03925172064772</v>
       </c>
       <c r="M13">
-        <v>1.050106192450378</v>
+        <v>1.0476413183799</v>
       </c>
       <c r="N13">
-        <v>1.043787367349035</v>
+        <v>1.032098365340998</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049307112482217</v>
+        <v>1.047358558011155</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042676244580215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040231900902342</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023236179214874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014290360543902</v>
+        <v>1.009901506715674</v>
       </c>
       <c r="D14">
-        <v>1.03089022955356</v>
+        <v>1.027111714239396</v>
       </c>
       <c r="E14">
-        <v>1.02877299076284</v>
+        <v>1.025393760761952</v>
       </c>
       <c r="F14">
-        <v>1.036727580537671</v>
+        <v>1.03403204525474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051737023251494</v>
+        <v>1.04970178770122</v>
       </c>
       <c r="J14">
-        <v>1.043115318085619</v>
+        <v>1.0389031692172</v>
       </c>
       <c r="K14">
-        <v>1.045268439139609</v>
+        <v>1.041556159247622</v>
       </c>
       <c r="L14">
-        <v>1.043188236793684</v>
+        <v>1.039868529980994</v>
       </c>
       <c r="M14">
-        <v>1.051004691378302</v>
+        <v>1.048355657317476</v>
       </c>
       <c r="N14">
-        <v>1.0445966614843</v>
+        <v>1.032267825635324</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050189306450139</v>
+        <v>1.048095447013251</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04314674052344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040537477518626</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023350108562258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014869056184898</v>
+        <v>1.010348144060252</v>
       </c>
       <c r="D15">
-        <v>1.03128828059139</v>
+        <v>1.0273971035801</v>
       </c>
       <c r="E15">
-        <v>1.029245839098929</v>
+        <v>1.025753524671745</v>
       </c>
       <c r="F15">
-        <v>1.037190047566127</v>
+        <v>1.034405663094688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051931157801816</v>
+        <v>1.049822833111657</v>
       </c>
       <c r="J15">
-        <v>1.043488656053272</v>
+        <v>1.039148151354192</v>
       </c>
       <c r="K15">
-        <v>1.045574531816754</v>
+        <v>1.041751042619885</v>
       </c>
       <c r="L15">
-        <v>1.043567536393982</v>
+        <v>1.040136254011328</v>
       </c>
       <c r="M15">
-        <v>1.051374888366938</v>
+        <v>1.048638161760862</v>
       </c>
       <c r="N15">
-        <v>1.044970529634689</v>
+        <v>1.032326005230975</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050519172826354</v>
+        <v>1.04835605535532</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043368962552848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040681656824068</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02339484297712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017708222625591</v>
+        <v>1.012597307050612</v>
       </c>
       <c r="D16">
-        <v>1.033167579501533</v>
+        <v>1.02877458438356</v>
       </c>
       <c r="E16">
-        <v>1.031419412649299</v>
+        <v>1.027428911857563</v>
       </c>
       <c r="F16">
-        <v>1.039181533132083</v>
+        <v>1.036003979991187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052738668845443</v>
+        <v>1.05031263654574</v>
       </c>
       <c r="J16">
-        <v>1.045161859523384</v>
+        <v>1.040244667792153</v>
       </c>
       <c r="K16">
-        <v>1.046927740355341</v>
+        <v>1.042607827925453</v>
       </c>
       <c r="L16">
-        <v>1.045208560298588</v>
+        <v>1.041284703462404</v>
       </c>
       <c r="M16">
-        <v>1.0528429321933</v>
+        <v>1.0497173774382</v>
       </c>
       <c r="N16">
-        <v>1.046646109245648</v>
+        <v>1.032541573805837</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051641106026799</v>
+        <v>1.049170587330584</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044328838813594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041290865447438</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023553703796316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019285533752232</v>
+        <v>1.013893724910808</v>
       </c>
       <c r="D17">
-        <v>1.034184643613298</v>
+        <v>1.029551472450967</v>
       </c>
       <c r="E17">
-        <v>1.032560561456446</v>
+        <v>1.028335939421848</v>
       </c>
       <c r="F17">
-        <v>1.040153871550997</v>
+        <v>1.036790730587056</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053124544740474</v>
+        <v>1.050550618941715</v>
       </c>
       <c r="J17">
-        <v>1.046022251724382</v>
+        <v>1.040828262485583</v>
       </c>
       <c r="K17">
-        <v>1.047618713534647</v>
+        <v>1.04306046474328</v>
       </c>
       <c r="L17">
-        <v>1.046020795955426</v>
+        <v>1.04186473158681</v>
       </c>
       <c r="M17">
-        <v>1.053492674095114</v>
+        <v>1.050183035062506</v>
       </c>
       <c r="N17">
-        <v>1.047507723302259</v>
+        <v>1.032683453460196</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05202673470794</v>
+        <v>1.049410453628692</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044819929456376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041613706449193</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023622086577002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019899909960012</v>
+        <v>1.014431369932852</v>
       </c>
       <c r="D18">
-        <v>1.034527316493312</v>
+        <v>1.029828344454373</v>
       </c>
       <c r="E18">
-        <v>1.032879948023497</v>
+        <v>1.028594414413174</v>
       </c>
       <c r="F18">
-        <v>1.040281230123699</v>
+        <v>1.036868098971244</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053164233979742</v>
+        <v>1.050554235504041</v>
       </c>
       <c r="J18">
-        <v>1.046231644267085</v>
+        <v>1.040960049267958</v>
       </c>
       <c r="K18">
-        <v>1.047775538991493</v>
+        <v>1.043151326526593</v>
       </c>
       <c r="L18">
-        <v>1.046154280579799</v>
+        <v>1.041937173264774</v>
       </c>
       <c r="M18">
-        <v>1.053439085158943</v>
+        <v>1.050079403714158</v>
       </c>
       <c r="N18">
-        <v>1.047717413206391</v>
+        <v>1.032676176867236</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051748949072576</v>
+        <v>1.049092564709744</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044919303803606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041665273615546</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023598345577599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019673367812308</v>
+        <v>1.014282227870483</v>
       </c>
       <c r="D19">
-        <v>1.034295316494815</v>
+        <v>1.029664016740218</v>
       </c>
       <c r="E19">
-        <v>1.032479356385145</v>
+        <v>1.028262610501755</v>
       </c>
       <c r="F19">
-        <v>1.039657742275524</v>
+        <v>1.036296011458217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052915606419558</v>
+        <v>1.050353369025462</v>
       </c>
       <c r="J19">
-        <v>1.04588279263662</v>
+        <v>1.04068478005065</v>
       </c>
       <c r="K19">
-        <v>1.047485694834468</v>
+        <v>1.042927722080893</v>
       </c>
       <c r="L19">
-        <v>1.045698386291046</v>
+        <v>1.041548671073182</v>
       </c>
       <c r="M19">
-        <v>1.052764260697719</v>
+        <v>1.049454972253371</v>
       </c>
       <c r="N19">
-        <v>1.047368066166597</v>
+        <v>1.032499001179994</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050893330483502</v>
+        <v>1.048275951315367</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04472070265342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041514149930053</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023497801558524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017064759946121</v>
+        <v>1.012184734893802</v>
       </c>
       <c r="D20">
-        <v>1.032417794273778</v>
+        <v>1.028230397972053</v>
       </c>
       <c r="E20">
-        <v>1.030056272539892</v>
+        <v>1.026275538436551</v>
       </c>
       <c r="F20">
-        <v>1.036968397470397</v>
+        <v>1.033945638007494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051845163974014</v>
+        <v>1.049568702582769</v>
       </c>
       <c r="J20">
-        <v>1.043953350810081</v>
+        <v>1.039253903266496</v>
       </c>
       <c r="K20">
-        <v>1.045913600453654</v>
+        <v>1.041794371531558</v>
       </c>
       <c r="L20">
-        <v>1.043590434805142</v>
+        <v>1.039871580474956</v>
       </c>
       <c r="M20">
-        <v>1.050390924038335</v>
+        <v>1.047416748590215</v>
       </c>
       <c r="N20">
-        <v>1.045435884311355</v>
+        <v>1.031818250319104</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048493780231759</v>
+        <v>1.046140056049233</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043613080366827</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040717126491598</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023173229825539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011593681418103</v>
+        <v>1.007966568131609</v>
       </c>
       <c r="D21">
-        <v>1.028750122129653</v>
+        <v>1.025632093328871</v>
       </c>
       <c r="E21">
-        <v>1.025751777105338</v>
+        <v>1.023048100797783</v>
       </c>
       <c r="F21">
-        <v>1.032933620960825</v>
+        <v>1.030759423671775</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050187475455205</v>
+        <v>1.048605823794637</v>
       </c>
       <c r="J21">
-        <v>1.04061454755031</v>
+        <v>1.037134945660355</v>
       </c>
       <c r="K21">
-        <v>1.04320654534521</v>
+        <v>1.040143602731491</v>
       </c>
       <c r="L21">
-        <v>1.040261164037057</v>
+        <v>1.03760559193868</v>
       </c>
       <c r="M21">
-        <v>1.047316810752035</v>
+        <v>1.045180577334894</v>
       </c>
       <c r="N21">
-        <v>1.042092339567989</v>
+        <v>1.031431134344784</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046020451533067</v>
+        <v>1.044329776885734</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041702333858837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039553520231939</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022857669528931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008110783825352</v>
+        <v>1.005271941762338</v>
       </c>
       <c r="D22">
-        <v>1.026419943596962</v>
+        <v>1.023978938105742</v>
       </c>
       <c r="E22">
-        <v>1.023036916670651</v>
+        <v>1.021013624279473</v>
       </c>
       <c r="F22">
-        <v>1.030416035376012</v>
+        <v>1.028778628701899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049132463961499</v>
+        <v>1.04799157638201</v>
       </c>
       <c r="J22">
-        <v>1.038499068583008</v>
+        <v>1.035782475268537</v>
       </c>
       <c r="K22">
-        <v>1.04148557736252</v>
+        <v>1.039089878418947</v>
       </c>
       <c r="L22">
-        <v>1.038165416929871</v>
+        <v>1.036179983173874</v>
       </c>
       <c r="M22">
-        <v>1.045408102614477</v>
+        <v>1.043800749932619</v>
       </c>
       <c r="N22">
-        <v>1.039973856377904</v>
+        <v>1.031140740103676</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.0445098469171</v>
+        <v>1.043237740956706</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040472176831647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038793791105084</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022657394539553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009947522338456</v>
+        <v>1.006645786635858</v>
       </c>
       <c r="D23">
-        <v>1.027640658843504</v>
+        <v>1.02480337022782</v>
       </c>
       <c r="E23">
-        <v>1.02446566331264</v>
+        <v>1.022040158842513</v>
       </c>
       <c r="F23">
-        <v>1.03174286543084</v>
+        <v>1.029788160079765</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049682904167289</v>
+        <v>1.048280944197951</v>
       </c>
       <c r="J23">
-        <v>1.039608867190391</v>
+        <v>1.036445109316656</v>
       </c>
       <c r="K23">
-        <v>1.042383131239638</v>
+        <v>1.03959715914944</v>
       </c>
       <c r="L23">
-        <v>1.039265584786362</v>
+        <v>1.036884281038527</v>
       </c>
       <c r="M23">
-        <v>1.04641179127185</v>
+        <v>1.04449203599155</v>
       </c>
       <c r="N23">
-        <v>1.041085231026605</v>
+        <v>1.03119513258797</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045304194376164</v>
+        <v>1.043784845249834</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041097223066314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039141944713591</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02274296482355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017048911167718</v>
+        <v>1.01217647345261</v>
       </c>
       <c r="D24">
-        <v>1.032384741118762</v>
+        <v>1.02820367865943</v>
       </c>
       <c r="E24">
-        <v>1.030009865910975</v>
+        <v>1.026236071643708</v>
       </c>
       <c r="F24">
-        <v>1.036893710750705</v>
+        <v>1.033876028531233</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051806355984177</v>
+        <v>1.049534850059387</v>
       </c>
       <c r="J24">
-        <v>1.043906112059308</v>
+        <v>1.039213724901655</v>
       </c>
       <c r="K24">
-        <v>1.045866050240136</v>
+        <v>1.041752970121637</v>
       </c>
       <c r="L24">
-        <v>1.043529702531875</v>
+        <v>1.039817602081238</v>
       </c>
       <c r="M24">
-        <v>1.050302493705847</v>
+        <v>1.047333260654382</v>
       </c>
       <c r="N24">
-        <v>1.045388578476137</v>
+        <v>1.031787887005652</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048383397704403</v>
+        <v>1.046033470429011</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0435523372971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040657981561827</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.0231534755552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024984592146423</v>
+        <v>1.019051623088802</v>
       </c>
       <c r="D25">
-        <v>1.037708032996393</v>
+        <v>1.032581818663189</v>
       </c>
       <c r="E25">
-        <v>1.036236908676584</v>
+        <v>1.031582513597684</v>
       </c>
       <c r="F25">
-        <v>1.042690332110358</v>
+        <v>1.03897812804581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054145401035349</v>
+        <v>1.051304800706058</v>
       </c>
       <c r="J25">
-        <v>1.048699419465946</v>
+        <v>1.042954405601363</v>
       </c>
       <c r="K25">
-        <v>1.04974788115223</v>
+        <v>1.044694554702488</v>
       </c>
       <c r="L25">
-        <v>1.048297580945597</v>
+        <v>1.0437095652349</v>
       </c>
       <c r="M25">
-        <v>1.054660205659921</v>
+        <v>1.051000057642428</v>
       </c>
       <c r="N25">
-        <v>1.050188692929092</v>
+        <v>1.03379068041361</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051832189370357</v>
+        <v>1.048935466632219</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04629409893183</v>
+        <v>1.042734648903525</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023808287529014</v>
       </c>
     </row>
   </sheetData>
